--- a/medicine/Sexualité et sexologie/Willy_Pasini/Willy_Pasini.xlsx
+++ b/medicine/Sexualité et sexologie/Willy_Pasini/Willy_Pasini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willy Pasini est un psychiatre et sexologue italien, professeur de psychiatrie et de psychologie médicale à l'université de Genève, né en 1938 à Milan.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Willy Pasini est d'origine italienne.
 Il enseigne la psychiatrie et la psychologie médicale à l'université de Genève où existe depuis 1970 un séminaire facultatif de sexologie clinique. Il a été chargé d'une mission dans le cadre de l'OMS en 1972 afin de faire un bilan de l'enseignement de la sexologie dans le monde et a contribué à l'élaboration du rapport sur la santé sexuelle (OMS, 1975). Il a travaillé sur la contraception et l'avortement avec d'autres spécialistes.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une première partie de sa carrière, il publie, en collaboration avec G. Abraham (autre professeur de psychiatrie de Genève) une Introduction à la sexologie médicale, un ouvrage spécialisé qui constitue le fondement de la sexologie médicale française avant de se lancer dans la rédaction d'ouvrages de vulgarisation destinés au grand public.
 </t>
